--- a/inst/template/template.xlsx
+++ b/inst/template/template.xlsx
@@ -25,7 +25,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +72,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +116,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,7 +147,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +167,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -139,13 +190,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="12">
+    <cellStyle name="zsl.Column.DateTime" xfId="7"/>
     <cellStyle name="zsl.Column.Numeric" xfId="2"/>
     <cellStyle name="zsl.Column.String" xfId="3"/>
+    <cellStyle name="zsl.Column.天数" xfId="8"/>
     <cellStyle name="zsl.Header" xfId="1"/>
-    <cellStyle name="zsl.Numeric.Big" xfId="4"/>
-    <cellStyle name="zsl.Numeric.Huge" xfId="6"/>
-    <cellStyle name="zsl.Numeric.Large" xfId="5"/>
+    <cellStyle name="zsl.Numeric.Big" xfId="9"/>
+    <cellStyle name="zsl.Numeric.Bigger" xfId="10"/>
+    <cellStyle name="zsl.Numeric.Biggest" xfId="11"/>
+    <cellStyle name="zsl.Numeric.Least" xfId="6"/>
+    <cellStyle name="zsl.Numeric.Less" xfId="5"/>
+    <cellStyle name="zsl.Numeric.Small" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
